--- a/Results/K15/Schaefer214/SuppTable5.xlsx
+++ b/Results/K15/Schaefer214/SuppTable5.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="7">
   <si>
     <t>Row</t>
   </si>
@@ -56,7 +56,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -72,11 +72,15 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -86,6 +90,10 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -104,18 +112,18 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -126,7 +134,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -137,7 +145,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -148,7 +156,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B5">

--- a/Results/K15/Schaefer214/SuppTable5.xlsx
+++ b/Results/K15/Schaefer214/SuppTable5.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="7">
   <si>
     <t>Row</t>
   </si>
@@ -56,7 +56,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -76,11 +76,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -94,6 +96,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -112,18 +116,18 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -134,7 +138,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -145,7 +149,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -156,7 +160,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B5">
